--- a/NWS.xlsx
+++ b/NWS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1BA556-2F64-4E4B-B6BC-CAB7BBD0523A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFABA2D-B82C-44BE-9B7D-005C50977D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{4709ED4D-5B90-4D9F-A410-0B4BF882CBEB}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{4709ED4D-5B90-4D9F-A410-0B4BF882CBEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -166,7 +166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,12 +175,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -189,6 +187,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -212,16 +224,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -560,32 +573,33 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>30.44</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="3">
@@ -596,11 +610,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="3">
@@ -608,11 +622,11 @@
         <v>17310.539416759999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="3">
@@ -622,8 +636,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="3">
@@ -634,8 +648,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I7" s="3">
@@ -643,8 +657,8 @@
         <v>18432.539416759999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -658,24 +672,25 @@
   <dimension ref="A1:O342"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
@@ -701,8 +716,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="3">
@@ -723,8 +738,8 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="3">
@@ -745,8 +760,8 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="3">
@@ -767,8 +782,8 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="3">
@@ -789,8 +804,8 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="3">
@@ -811,7 +826,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
@@ -853,8 +868,8 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="3">
@@ -875,8 +890,8 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="3">
@@ -917,8 +932,8 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="3">
@@ -939,8 +954,8 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="3">
@@ -961,8 +976,8 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="3">
@@ -983,8 +998,8 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="3">
@@ -1025,8 +1040,8 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="3">
@@ -1047,8 +1062,8 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="3">
@@ -1069,8 +1084,8 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="3">
@@ -1091,8 +1106,8 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="3">
@@ -1115,8 +1130,8 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="3">
@@ -1137,8 +1152,8 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="3">
@@ -1179,8 +1194,8 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="3">
@@ -1201,8 +1216,8 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="3">
@@ -1225,7 +1240,7 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1238,39 +1253,39 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="7">
         <f t="shared" ref="C24:F24" si="8">+C22/C25</f>
         <v>0.05</v>
       </c>
-      <c r="D24" s="2" t="e">
+      <c r="D24" s="7" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E24" s="2" t="e">
+      <c r="E24" s="7" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F24" s="2" t="e">
+      <c r="F24" s="7" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="7">
         <f>+G22/G25</f>
         <v>0.20999999999999996</v>
       </c>
-      <c r="H24" s="2" t="e">
+      <c r="H24" s="7" t="e">
         <f t="shared" ref="H24:J24" si="9">+H22/H25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="2" t="e">
+      <c r="I24" s="7" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J24" s="2" t="e">
+      <c r="J24" s="7" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -1280,8 +1295,8 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="3">
@@ -1302,7 +1317,7 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1316,7 +1331,7 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1331,7 +1346,7 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1346,7 +1361,7 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1361,7 +1376,7 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1376,7 +1391,7 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1391,7 +1406,7 @@
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1406,7 +1421,7 @@
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1421,7 +1436,7 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1436,7 +1451,7 @@
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -1451,7 +1466,7 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -1466,7 +1481,7 @@
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -1481,7 +1496,7 @@
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -1496,7 +1511,7 @@
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -1511,7 +1526,7 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -1526,7 +1541,7 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -1541,7 +1556,7 @@
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -1556,7 +1571,7 @@
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -1571,7 +1586,7 @@
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -1586,7 +1601,7 @@
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -1601,7 +1616,7 @@
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -1616,7 +1631,7 @@
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -1631,7 +1646,7 @@
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -1646,7 +1661,7 @@
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -1661,7 +1676,7 @@
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -1676,7 +1691,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -1691,7 +1706,7 @@
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -1706,7 +1721,7 @@
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -1721,7 +1736,7 @@
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -1736,7 +1751,7 @@
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -1751,7 +1766,7 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -1766,7 +1781,7 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -1781,7 +1796,7 @@
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -1796,7 +1811,7 @@
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -1811,7 +1826,7 @@
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -1826,7 +1841,7 @@
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -1841,7 +1856,7 @@
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -1856,7 +1871,7 @@
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -1871,7 +1886,7 @@
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -1886,7 +1901,7 @@
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -1901,7 +1916,7 @@
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -1916,7 +1931,7 @@
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -1931,7 +1946,7 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -1946,7 +1961,7 @@
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -1961,7 +1976,7 @@
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -1976,7 +1991,7 @@
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -1991,7 +2006,7 @@
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -2006,7 +2021,7 @@
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -2021,7 +2036,7 @@
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -2036,7 +2051,7 @@
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -2051,7 +2066,7 @@
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -2066,7 +2081,7 @@
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -2081,7 +2096,7 @@
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -2096,7 +2111,7 @@
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -2111,7 +2126,7 @@
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -2126,7 +2141,7 @@
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -2141,7 +2156,7 @@
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -2156,7 +2171,7 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -2171,7 +2186,7 @@
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -2186,7 +2201,7 @@
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -2201,7 +2216,7 @@
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -2216,7 +2231,7 @@
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -2231,7 +2246,7 @@
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -2246,7 +2261,7 @@
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -2261,7 +2276,7 @@
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -2276,7 +2291,7 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -2291,7 +2306,7 @@
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -2306,7 +2321,7 @@
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -2321,7 +2336,7 @@
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -2336,7 +2351,7 @@
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -2351,7 +2366,7 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -2366,7 +2381,7 @@
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -2381,7 +2396,7 @@
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -2396,7 +2411,7 @@
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -2411,7 +2426,7 @@
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -2426,7 +2441,7 @@
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -2441,7 +2456,7 @@
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -2456,7 +2471,7 @@
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -2471,7 +2486,7 @@
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -2486,7 +2501,7 @@
       <c r="N104" s="3"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -2501,7 +2516,7 @@
       <c r="N105" s="3"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -2516,7 +2531,7 @@
       <c r="N106" s="3"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -2531,7 +2546,7 @@
       <c r="N107" s="3"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -2546,7 +2561,7 @@
       <c r="N108" s="3"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -2561,7 +2576,7 @@
       <c r="N109" s="3"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -2576,7 +2591,7 @@
       <c r="N110" s="3"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -2591,7 +2606,7 @@
       <c r="N111" s="3"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -2606,7 +2621,7 @@
       <c r="N112" s="3"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -2621,7 +2636,7 @@
       <c r="N113" s="3"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -2636,7 +2651,7 @@
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -2651,7 +2666,7 @@
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -2666,7 +2681,7 @@
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -2681,7 +2696,7 @@
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -2696,7 +2711,7 @@
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -2711,7 +2726,7 @@
       <c r="N119" s="3"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -2726,7 +2741,7 @@
       <c r="N120" s="3"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -2741,7 +2756,7 @@
       <c r="N121" s="3"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -2756,7 +2771,7 @@
       <c r="N122" s="3"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -2771,7 +2786,7 @@
       <c r="N123" s="3"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -2786,7 +2801,7 @@
       <c r="N124" s="3"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -2801,7 +2816,7 @@
       <c r="N125" s="3"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -2816,7 +2831,7 @@
       <c r="N126" s="3"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -2831,7 +2846,7 @@
       <c r="N127" s="3"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -2846,7 +2861,7 @@
       <c r="N128" s="3"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -2861,7 +2876,7 @@
       <c r="N129" s="3"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -2876,7 +2891,7 @@
       <c r="N130" s="3"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -2891,7 +2906,7 @@
       <c r="N131" s="3"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -2906,7 +2921,7 @@
       <c r="N132" s="3"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -2921,7 +2936,7 @@
       <c r="N133" s="3"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -2936,7 +2951,7 @@
       <c r="N134" s="3"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -2951,7 +2966,7 @@
       <c r="N135" s="3"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -2966,7 +2981,7 @@
       <c r="N136" s="3"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -2981,7 +2996,7 @@
       <c r="N137" s="3"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -2996,7 +3011,7 @@
       <c r="N138" s="3"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -3011,7 +3026,7 @@
       <c r="N139" s="3"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -3026,7 +3041,7 @@
       <c r="N140" s="3"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -3041,7 +3056,7 @@
       <c r="N141" s="3"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -3056,7 +3071,7 @@
       <c r="N142" s="3"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -3071,7 +3086,7 @@
       <c r="N143" s="3"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -3086,7 +3101,7 @@
       <c r="N144" s="3"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -3101,7 +3116,7 @@
       <c r="N145" s="3"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -3116,7 +3131,7 @@
       <c r="N146" s="3"/>
       <c r="O146" s="3"/>
     </row>
-    <row r="147" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -3131,7 +3146,7 @@
       <c r="N147" s="3"/>
       <c r="O147" s="3"/>
     </row>
-    <row r="148" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -3146,7 +3161,7 @@
       <c r="N148" s="3"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -3161,7 +3176,7 @@
       <c r="N149" s="3"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -3176,7 +3191,7 @@
       <c r="N150" s="3"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -3191,7 +3206,7 @@
       <c r="N151" s="3"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -3206,7 +3221,7 @@
       <c r="N152" s="3"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -3221,7 +3236,7 @@
       <c r="N153" s="3"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -3236,7 +3251,7 @@
       <c r="N154" s="3"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -3251,7 +3266,7 @@
       <c r="N155" s="3"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -3266,7 +3281,7 @@
       <c r="N156" s="3"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -3281,7 +3296,7 @@
       <c r="N157" s="3"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -3296,7 +3311,7 @@
       <c r="N158" s="3"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -3311,7 +3326,7 @@
       <c r="N159" s="3"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -3326,7 +3341,7 @@
       <c r="N160" s="3"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -3341,7 +3356,7 @@
       <c r="N161" s="3"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -3356,7 +3371,7 @@
       <c r="N162" s="3"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -3371,7 +3386,7 @@
       <c r="N163" s="3"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -3386,7 +3401,7 @@
       <c r="N164" s="3"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -3401,7 +3416,7 @@
       <c r="N165" s="3"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -3416,7 +3431,7 @@
       <c r="N166" s="3"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -3431,7 +3446,7 @@
       <c r="N167" s="3"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -3446,7 +3461,7 @@
       <c r="N168" s="3"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -3461,7 +3476,7 @@
       <c r="N169" s="3"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -3476,7 +3491,7 @@
       <c r="N170" s="3"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -3491,7 +3506,7 @@
       <c r="N171" s="3"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -3506,7 +3521,7 @@
       <c r="N172" s="3"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -3521,7 +3536,7 @@
       <c r="N173" s="3"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -3536,7 +3551,7 @@
       <c r="N174" s="3"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -3551,7 +3566,7 @@
       <c r="N175" s="3"/>
       <c r="O175" s="3"/>
     </row>
-    <row r="176" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -3566,7 +3581,7 @@
       <c r="N176" s="3"/>
       <c r="O176" s="3"/>
     </row>
-    <row r="177" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -3581,7 +3596,7 @@
       <c r="N177" s="3"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -3596,7 +3611,7 @@
       <c r="N178" s="3"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -3611,7 +3626,7 @@
       <c r="N179" s="3"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -3626,7 +3641,7 @@
       <c r="N180" s="3"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -3641,7 +3656,7 @@
       <c r="N181" s="3"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -3656,7 +3671,7 @@
       <c r="N182" s="3"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -3671,7 +3686,7 @@
       <c r="N183" s="3"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -3686,7 +3701,7 @@
       <c r="N184" s="3"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -3701,7 +3716,7 @@
       <c r="N185" s="3"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -3716,7 +3731,7 @@
       <c r="N186" s="3"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -3731,7 +3746,7 @@
       <c r="N187" s="3"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -3746,7 +3761,7 @@
       <c r="N188" s="3"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -3761,7 +3776,7 @@
       <c r="N189" s="3"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -3776,7 +3791,7 @@
       <c r="N190" s="3"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -3791,7 +3806,7 @@
       <c r="N191" s="3"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -3806,7 +3821,7 @@
       <c r="N192" s="3"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -3821,7 +3836,7 @@
       <c r="N193" s="3"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -3836,7 +3851,7 @@
       <c r="N194" s="3"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -3851,7 +3866,7 @@
       <c r="N195" s="3"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -3866,7 +3881,7 @@
       <c r="N196" s="3"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -3881,7 +3896,7 @@
       <c r="N197" s="3"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -3896,7 +3911,7 @@
       <c r="N198" s="3"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -3911,7 +3926,7 @@
       <c r="N199" s="3"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -3926,7 +3941,7 @@
       <c r="N200" s="3"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -3941,7 +3956,7 @@
       <c r="N201" s="3"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -3956,7 +3971,7 @@
       <c r="N202" s="3"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -3971,7 +3986,7 @@
       <c r="N203" s="3"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -3986,7 +4001,7 @@
       <c r="N204" s="3"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -4001,7 +4016,7 @@
       <c r="N205" s="3"/>
       <c r="O205" s="3"/>
     </row>
-    <row r="206" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -4016,7 +4031,7 @@
       <c r="N206" s="3"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -4031,7 +4046,7 @@
       <c r="N207" s="3"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -4046,7 +4061,7 @@
       <c r="N208" s="3"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -4061,7 +4076,7 @@
       <c r="N209" s="3"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -4076,7 +4091,7 @@
       <c r="N210" s="3"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -4091,7 +4106,7 @@
       <c r="N211" s="3"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -4106,7 +4121,7 @@
       <c r="N212" s="3"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -4121,7 +4136,7 @@
       <c r="N213" s="3"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -4136,7 +4151,7 @@
       <c r="N214" s="3"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -4151,7 +4166,7 @@
       <c r="N215" s="3"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -4166,7 +4181,7 @@
       <c r="N216" s="3"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -4181,7 +4196,7 @@
       <c r="N217" s="3"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -4196,7 +4211,7 @@
       <c r="N218" s="3"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -4211,7 +4226,7 @@
       <c r="N219" s="3"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -4226,7 +4241,7 @@
       <c r="N220" s="3"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -4241,7 +4256,7 @@
       <c r="N221" s="3"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -4256,7 +4271,7 @@
       <c r="N222" s="3"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -4271,7 +4286,7 @@
       <c r="N223" s="3"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -4286,7 +4301,7 @@
       <c r="N224" s="3"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -4301,7 +4316,7 @@
       <c r="N225" s="3"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -4316,7 +4331,7 @@
       <c r="N226" s="3"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -4331,7 +4346,7 @@
       <c r="N227" s="3"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -4346,7 +4361,7 @@
       <c r="N228" s="3"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -4361,7 +4376,7 @@
       <c r="N229" s="3"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -4376,7 +4391,7 @@
       <c r="N230" s="3"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -4391,7 +4406,7 @@
       <c r="N231" s="3"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -4406,7 +4421,7 @@
       <c r="N232" s="3"/>
       <c r="O232" s="3"/>
     </row>
-    <row r="233" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -4421,7 +4436,7 @@
       <c r="N233" s="3"/>
       <c r="O233" s="3"/>
     </row>
-    <row r="234" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -4436,7 +4451,7 @@
       <c r="N234" s="3"/>
       <c r="O234" s="3"/>
     </row>
-    <row r="235" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -4451,7 +4466,7 @@
       <c r="N235" s="3"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -4466,7 +4481,7 @@
       <c r="N236" s="3"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -4481,7 +4496,7 @@
       <c r="N237" s="3"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -4496,7 +4511,7 @@
       <c r="N238" s="3"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -4511,7 +4526,7 @@
       <c r="N239" s="3"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -4526,7 +4541,7 @@
       <c r="N240" s="3"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -4541,7 +4556,7 @@
       <c r="N241" s="3"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -4556,7 +4571,7 @@
       <c r="N242" s="3"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -4571,7 +4586,7 @@
       <c r="N243" s="3"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -4586,7 +4601,7 @@
       <c r="N244" s="3"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -4601,7 +4616,7 @@
       <c r="N245" s="3"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -4616,7 +4631,7 @@
       <c r="N246" s="3"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -4631,7 +4646,7 @@
       <c r="N247" s="3"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -4646,7 +4661,7 @@
       <c r="N248" s="3"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -4661,7 +4676,7 @@
       <c r="N249" s="3"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -4676,7 +4691,7 @@
       <c r="N250" s="3"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -4691,7 +4706,7 @@
       <c r="N251" s="3"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -4706,7 +4721,7 @@
       <c r="N252" s="3"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -4721,7 +4736,7 @@
       <c r="N253" s="3"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -4736,7 +4751,7 @@
       <c r="N254" s="3"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -4751,7 +4766,7 @@
       <c r="N255" s="3"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -4766,7 +4781,7 @@
       <c r="N256" s="3"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -4781,7 +4796,7 @@
       <c r="N257" s="3"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -4796,7 +4811,7 @@
       <c r="N258" s="3"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -4811,7 +4826,7 @@
       <c r="N259" s="3"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -4826,7 +4841,7 @@
       <c r="N260" s="3"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -4841,7 +4856,7 @@
       <c r="N261" s="3"/>
       <c r="O261" s="3"/>
     </row>
-    <row r="262" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -4856,7 +4871,7 @@
       <c r="N262" s="3"/>
       <c r="O262" s="3"/>
     </row>
-    <row r="263" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -4871,7 +4886,7 @@
       <c r="N263" s="3"/>
       <c r="O263" s="3"/>
     </row>
-    <row r="264" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -4886,7 +4901,7 @@
       <c r="N264" s="3"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -4901,7 +4916,7 @@
       <c r="N265" s="3"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -4916,7 +4931,7 @@
       <c r="N266" s="3"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -4931,7 +4946,7 @@
       <c r="N267" s="3"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -4946,7 +4961,7 @@
       <c r="N268" s="3"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -4961,7 +4976,7 @@
       <c r="N269" s="3"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -4976,7 +4991,7 @@
       <c r="N270" s="3"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -4991,7 +5006,7 @@
       <c r="N271" s="3"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -5006,7 +5021,7 @@
       <c r="N272" s="3"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -5021,7 +5036,7 @@
       <c r="N273" s="3"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -5036,7 +5051,7 @@
       <c r="N274" s="3"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -5051,7 +5066,7 @@
       <c r="N275" s="3"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -5066,7 +5081,7 @@
       <c r="N276" s="3"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -5081,7 +5096,7 @@
       <c r="N277" s="3"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -5096,7 +5111,7 @@
       <c r="N278" s="3"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -5111,7 +5126,7 @@
       <c r="N279" s="3"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -5126,7 +5141,7 @@
       <c r="N280" s="3"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -5141,7 +5156,7 @@
       <c r="N281" s="3"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -5156,7 +5171,7 @@
       <c r="N282" s="3"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -5171,7 +5186,7 @@
       <c r="N283" s="3"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -5186,7 +5201,7 @@
       <c r="N284" s="3"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -5201,7 +5216,7 @@
       <c r="N285" s="3"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -5216,7 +5231,7 @@
       <c r="N286" s="3"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -5231,7 +5246,7 @@
       <c r="N287" s="3"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -5246,7 +5261,7 @@
       <c r="N288" s="3"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -5261,7 +5276,7 @@
       <c r="N289" s="3"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -5276,7 +5291,7 @@
       <c r="N290" s="3"/>
       <c r="O290" s="3"/>
     </row>
-    <row r="291" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -5291,7 +5306,7 @@
       <c r="N291" s="3"/>
       <c r="O291" s="3"/>
     </row>
-    <row r="292" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
@@ -5306,7 +5321,7 @@
       <c r="N292" s="3"/>
       <c r="O292" s="3"/>
     </row>
-    <row r="293" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
@@ -5321,7 +5336,7 @@
       <c r="N293" s="3"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -5336,7 +5351,7 @@
       <c r="N294" s="3"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -5351,7 +5366,7 @@
       <c r="N295" s="3"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
@@ -5366,7 +5381,7 @@
       <c r="N296" s="3"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -5381,7 +5396,7 @@
       <c r="N297" s="3"/>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -5396,7 +5411,7 @@
       <c r="N298" s="3"/>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -5411,7 +5426,7 @@
       <c r="N299" s="3"/>
       <c r="O299" s="3"/>
     </row>
-    <row r="300" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -5426,7 +5441,7 @@
       <c r="N300" s="3"/>
       <c r="O300" s="3"/>
     </row>
-    <row r="301" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -5441,7 +5456,7 @@
       <c r="N301" s="3"/>
       <c r="O301" s="3"/>
     </row>
-    <row r="302" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
@@ -5456,7 +5471,7 @@
       <c r="N302" s="3"/>
       <c r="O302" s="3"/>
     </row>
-    <row r="303" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
@@ -5471,7 +5486,7 @@
       <c r="N303" s="3"/>
       <c r="O303" s="3"/>
     </row>
-    <row r="304" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
@@ -5486,7 +5501,7 @@
       <c r="N304" s="3"/>
       <c r="O304" s="3"/>
     </row>
-    <row r="305" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -5501,7 +5516,7 @@
       <c r="N305" s="3"/>
       <c r="O305" s="3"/>
     </row>
-    <row r="306" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
@@ -5516,7 +5531,7 @@
       <c r="N306" s="3"/>
       <c r="O306" s="3"/>
     </row>
-    <row r="307" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -5531,7 +5546,7 @@
       <c r="N307" s="3"/>
       <c r="O307" s="3"/>
     </row>
-    <row r="308" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
@@ -5546,7 +5561,7 @@
       <c r="N308" s="3"/>
       <c r="O308" s="3"/>
     </row>
-    <row r="309" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
@@ -5561,7 +5576,7 @@
       <c r="N309" s="3"/>
       <c r="O309" s="3"/>
     </row>
-    <row r="310" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -5576,7 +5591,7 @@
       <c r="N310" s="3"/>
       <c r="O310" s="3"/>
     </row>
-    <row r="311" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -5591,7 +5606,7 @@
       <c r="N311" s="3"/>
       <c r="O311" s="3"/>
     </row>
-    <row r="312" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
@@ -5606,7 +5621,7 @@
       <c r="N312" s="3"/>
       <c r="O312" s="3"/>
     </row>
-    <row r="313" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
@@ -5621,7 +5636,7 @@
       <c r="N313" s="3"/>
       <c r="O313" s="3"/>
     </row>
-    <row r="314" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -5636,7 +5651,7 @@
       <c r="N314" s="3"/>
       <c r="O314" s="3"/>
     </row>
-    <row r="315" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -5651,7 +5666,7 @@
       <c r="N315" s="3"/>
       <c r="O315" s="3"/>
     </row>
-    <row r="316" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
@@ -5666,7 +5681,7 @@
       <c r="N316" s="3"/>
       <c r="O316" s="3"/>
     </row>
-    <row r="317" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
@@ -5681,7 +5696,7 @@
       <c r="N317" s="3"/>
       <c r="O317" s="3"/>
     </row>
-    <row r="318" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
@@ -5696,7 +5711,7 @@
       <c r="N318" s="3"/>
       <c r="O318" s="3"/>
     </row>
-    <row r="319" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
@@ -5711,7 +5726,7 @@
       <c r="N319" s="3"/>
       <c r="O319" s="3"/>
     </row>
-    <row r="320" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
@@ -5726,7 +5741,7 @@
       <c r="N320" s="3"/>
       <c r="O320" s="3"/>
     </row>
-    <row r="321" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
@@ -5741,7 +5756,7 @@
       <c r="N321" s="3"/>
       <c r="O321" s="3"/>
     </row>
-    <row r="322" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
@@ -5756,7 +5771,7 @@
       <c r="N322" s="3"/>
       <c r="O322" s="3"/>
     </row>
-    <row r="323" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
@@ -5771,7 +5786,7 @@
       <c r="N323" s="3"/>
       <c r="O323" s="3"/>
     </row>
-    <row r="324" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
@@ -5786,7 +5801,7 @@
       <c r="N324" s="3"/>
       <c r="O324" s="3"/>
     </row>
-    <row r="325" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
@@ -5801,7 +5816,7 @@
       <c r="N325" s="3"/>
       <c r="O325" s="3"/>
     </row>
-    <row r="326" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
@@ -5816,7 +5831,7 @@
       <c r="N326" s="3"/>
       <c r="O326" s="3"/>
     </row>
-    <row r="327" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
@@ -5831,7 +5846,7 @@
       <c r="N327" s="3"/>
       <c r="O327" s="3"/>
     </row>
-    <row r="328" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
@@ -5846,7 +5861,7 @@
       <c r="N328" s="3"/>
       <c r="O328" s="3"/>
     </row>
-    <row r="329" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
@@ -5861,7 +5876,7 @@
       <c r="N329" s="3"/>
       <c r="O329" s="3"/>
     </row>
-    <row r="330" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
@@ -5876,7 +5891,7 @@
       <c r="N330" s="3"/>
       <c r="O330" s="3"/>
     </row>
-    <row r="331" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
@@ -5891,7 +5906,7 @@
       <c r="N331" s="3"/>
       <c r="O331" s="3"/>
     </row>
-    <row r="332" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
@@ -5906,7 +5921,7 @@
       <c r="N332" s="3"/>
       <c r="O332" s="3"/>
     </row>
-    <row r="333" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
@@ -5921,7 +5936,7 @@
       <c r="N333" s="3"/>
       <c r="O333" s="3"/>
     </row>
-    <row r="334" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
@@ -5936,7 +5951,7 @@
       <c r="N334" s="3"/>
       <c r="O334" s="3"/>
     </row>
-    <row r="335" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
@@ -5951,7 +5966,7 @@
       <c r="N335" s="3"/>
       <c r="O335" s="3"/>
     </row>
-    <row r="336" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
@@ -5966,7 +5981,7 @@
       <c r="N336" s="3"/>
       <c r="O336" s="3"/>
     </row>
-    <row r="337" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
@@ -5981,7 +5996,7 @@
       <c r="N337" s="3"/>
       <c r="O337" s="3"/>
     </row>
-    <row r="338" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
@@ -5996,7 +6011,7 @@
       <c r="N338" s="3"/>
       <c r="O338" s="3"/>
     </row>
-    <row r="339" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
@@ -6011,7 +6026,7 @@
       <c r="N339" s="3"/>
       <c r="O339" s="3"/>
     </row>
-    <row r="340" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
@@ -6026,7 +6041,7 @@
       <c r="N340" s="3"/>
       <c r="O340" s="3"/>
     </row>
-    <row r="341" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
@@ -6041,7 +6056,7 @@
       <c r="N341" s="3"/>
       <c r="O341" s="3"/>
     </row>
-    <row r="342" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
